--- a/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>BANT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,37 +946,40 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2700</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -968,13 +987,16 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>1700</v>
       </c>
       <c r="E17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-500</v>
       </c>
       <c r="G18" s="3">
         <v>-500</v>
       </c>
       <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,25 +1143,26 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1149,46 +1182,52 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-500</v>
       </c>
       <c r="G21" s="3">
         <v>-500</v>
       </c>
       <c r="H21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1199,87 +1238,93 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1300</v>
       </c>
       <c r="L23" s="3">
         <v>-1300</v>
       </c>
       <c r="M23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1301,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1300</v>
       </c>
       <c r="L26" s="3">
         <v>-1300</v>
       </c>
       <c r="M26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1300</v>
       </c>
       <c r="L27" s="3">
         <v>-1300</v>
       </c>
       <c r="M27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,25 +1633,28 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1605,46 +1674,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1300</v>
       </c>
       <c r="L33" s="3">
         <v>-1300</v>
       </c>
       <c r="M33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1300</v>
       </c>
       <c r="L35" s="3">
         <v>-1300</v>
       </c>
       <c r="M35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,16 +1959,19 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1000</v>
       </c>
       <c r="F43" s="3">
         <v>1000</v>
@@ -1888,66 +1980,72 @@
         <v>1000</v>
       </c>
       <c r="H43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
       </c>
       <c r="K44" s="3">
+        <v>300</v>
+      </c>
+      <c r="L44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1958,72 +2056,78 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="3">
         <v>1100</v>
       </c>
       <c r="F46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2083,8 +2190,8 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -2098,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2107,37 +2217,40 @@
         <v>8</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>2800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3600</v>
       </c>
       <c r="G49" s="3">
         <v>3600</v>
       </c>
       <c r="H49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I49" s="3">
         <v>3700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3800</v>
       </c>
       <c r="J49" s="3">
         <v>3800</v>
       </c>
       <c r="K49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L49" s="3">
         <v>3900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4000</v>
       </c>
       <c r="M49" s="3">
         <v>4000</v>
       </c>
       <c r="N49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,181 +2487,194 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>3300</v>
       </c>
       <c r="F57" s="3">
         <v>3300</v>
       </c>
       <c r="G57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3800</v>
       </c>
       <c r="L57" s="3">
         <v>3800</v>
       </c>
       <c r="M57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="E58" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="E59" s="3">
         <v>2200</v>
       </c>
       <c r="F59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E60" s="3">
         <v>14700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F61" s="3">
         <v>7600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2548,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2574,20 +2719,23 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E66" s="3">
         <v>16000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-14900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1300</v>
       </c>
       <c r="L81" s="3">
         <v>-1300</v>
       </c>
       <c r="M81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,13 +3428,14 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-400</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,28 +3732,29 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,28 +3853,31 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,35 +4157,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -3945,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>BANT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,177 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
@@ -827,31 +847,37 @@
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +983,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -999,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,23 +1221,23 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1185,131 +1253,155 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>600</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
       </c>
       <c r="K22" s="3">
+        <v>600</v>
+      </c>
+      <c r="L22" s="3">
+        <v>500</v>
+      </c>
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1322,8 +1414,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1349,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,22 +1785,22 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1677,49 +1817,61 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +2052,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1889,40 +2063,46 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,90 +2142,108 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1000</v>
       </c>
       <c r="H43" s="3">
         <v>1000</v>
       </c>
       <c r="I43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
       <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>500</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
       </c>
       <c r="K44" s="3">
+        <v>500</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
+        <v>300</v>
+      </c>
+      <c r="N44" s="3">
         <v>600</v>
-      </c>
-      <c r="M44" s="3">
-        <v>700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>500</v>
       </c>
       <c r="O44" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2059,75 +2257,87 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,13 +2377,19 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2193,11 +2409,11 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
@@ -2208,49 +2424,61 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>2800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,199 +2748,225 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="F57" s="3">
         <v>3300</v>
       </c>
       <c r="G57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F58" s="3">
         <v>9200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>9300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>8000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>10300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>10800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F60" s="3">
         <v>15200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>14700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>14600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>15100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>14500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>11200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2693,49 +2979,61 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3">
-        <v>100</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F66" s="3">
         <v>16500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>16000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>15600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>14900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>15100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>14500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-27400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-26700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-21700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-20700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-19600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-17600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-16900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-15200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-15400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-14900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-11600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-10100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-9700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-9400</v>
       </c>
       <c r="K76" s="3">
         <v>-9200</v>
       </c>
       <c r="L76" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-7500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-6400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3438,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -3470,8 +3868,14 @@
       <c r="O83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>300</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,34 +4173,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -3774,8 +4216,14 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,34 +4310,40 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
@@ -3897,8 +4357,14 @@
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>300</v>
-      </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>300</v>
       </c>
       <c r="H100" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
+        <v>400</v>
+      </c>
+      <c r="K100" s="3">
+        <v>300</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>BANT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,202 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
@@ -853,31 +872,37 @@
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1051,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1227,23 +1294,23 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1259,55 +1326,67 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1318,90 +1397,102 @@
         <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>600</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
       </c>
       <c r="M22" s="3">
+        <v>600</v>
+      </c>
+      <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1791,22 +1930,22 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1823,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,13 +2225,15 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
@@ -2069,40 +2242,46 @@
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,102 +2327,120 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1000</v>
       </c>
       <c r="J43" s="3">
         <v>1000</v>
       </c>
       <c r="K43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
       <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
         <v>200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>500</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
       </c>
       <c r="M44" s="3">
+        <v>500</v>
+      </c>
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
+        <v>300</v>
+      </c>
+      <c r="P44" s="3">
         <v>600</v>
-      </c>
-      <c r="O44" s="3">
-        <v>700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>500</v>
       </c>
       <c r="Q44" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>500</v>
+      </c>
+      <c r="S44" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2263,81 +2460,93 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,20 +2592,26 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
@@ -2415,11 +2630,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
@@ -2430,8 +2645,14 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2444,41 +2665,47 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>2800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,149 +3009,169 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3200</v>
       </c>
       <c r="H57" s="3">
         <v>3300</v>
       </c>
       <c r="I57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F58" s="3">
         <v>9700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>9400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>9200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>9300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>10300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>10800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,79 +3179,85 @@
         <v>16100</v>
       </c>
       <c r="E60" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G60" s="3">
         <v>16000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>15200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>14700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>14600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>15100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>14500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>13700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>12400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F61" s="3">
         <v>2700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>7500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2985,19 +3270,25 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -3011,29 +3302,35 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
-      </c>
       <c r="Q62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F66" s="3">
         <v>18900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>17200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>16500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>16000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>15600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>15300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>13700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>12400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>11200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-30500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-28300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-27400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-26700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-23400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-21700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-20700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-19600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-17600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-15200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-18100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-16200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-15400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-14900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-11600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-10100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-9700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-9400</v>
       </c>
       <c r="M76" s="3">
         <v>-9200</v>
       </c>
       <c r="N76" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="P76" s="3">
         <v>-7500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-6400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3842,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>300</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>300</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,40 +4614,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,40 +4769,46 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>300</v>
       </c>
       <c r="L100" s="3">
+        <v>400</v>
+      </c>
+      <c r="M100" s="3">
+        <v>300</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>BANT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,158 +755,167 @@
         <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1100</v>
       </c>
       <c r="G8" s="3">
         <v>1100</v>
       </c>
       <c r="H8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>800</v>
       </c>
       <c r="G9" s="3">
         <v>800</v>
       </c>
       <c r="H9" s="3">
+        <v>800</v>
+      </c>
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,52 +1045,55 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1102,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-500</v>
       </c>
       <c r="L18" s="3">
         <v>-500</v>
       </c>
       <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1300,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1332,66 +1366,72 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-500</v>
       </c>
       <c r="L21" s="3">
         <v>-500</v>
       </c>
       <c r="M21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -1403,7 +1443,7 @@
         <v>400</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1412,87 +1452,93 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>400</v>
       </c>
       <c r="R22" s="3">
         <v>400</v>
       </c>
       <c r="S22" s="3">
+        <v>400</v>
+      </c>
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q23" s="3">
         <v>-1300</v>
       </c>
       <c r="R23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q26" s="3">
         <v>-1300</v>
       </c>
       <c r="R26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q27" s="3">
         <v>-1300</v>
       </c>
       <c r="R27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1936,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q33" s="3">
         <v>-1300</v>
       </c>
       <c r="R33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q35" s="3">
         <v>-1300</v>
       </c>
       <c r="R35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,16 +2313,17 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
@@ -2248,40 +2335,43 @@
         <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,31 +2423,34 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1000</v>
       </c>
       <c r="K43" s="3">
         <v>1000</v>
@@ -2366,81 +2459,87 @@
         <v>1000</v>
       </c>
       <c r="M43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
-      </c>
-      <c r="N44" s="3">
-        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
       </c>
       <c r="P44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2466,87 +2565,93 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1000</v>
       </c>
       <c r="H46" s="3">
         <v>1000</v>
       </c>
       <c r="I46" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J46" s="3">
         <v>1100</v>
       </c>
       <c r="K46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2610,11 +2718,11 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
@@ -2636,8 +2744,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2671,41 +2782,44 @@
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>2800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>3600</v>
       </c>
       <c r="L49" s="3">
         <v>3600</v>
       </c>
       <c r="M49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N49" s="3">
         <v>3700</v>
-      </c>
-      <c r="N49" s="3">
-        <v>3800</v>
       </c>
       <c r="O49" s="3">
         <v>3800</v>
       </c>
       <c r="P49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3900</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>4000</v>
       </c>
       <c r="R49" s="3">
         <v>4000</v>
       </c>
       <c r="S49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1000</v>
       </c>
       <c r="H54" s="3">
         <v>1000</v>
       </c>
       <c r="I54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,167 +3141,177 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3300</v>
       </c>
       <c r="K57" s="3">
         <v>3300</v>
       </c>
       <c r="L57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>3800</v>
       </c>
       <c r="Q57" s="3">
         <v>3800</v>
       </c>
       <c r="R57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E58" s="3">
         <v>9200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2200</v>
       </c>
       <c r="J59" s="3">
         <v>2200</v>
       </c>
       <c r="K59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,88 +3319,91 @@
         <v>16100</v>
       </c>
       <c r="E60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F60" s="3">
         <v>16800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1300</v>
       </c>
       <c r="I61" s="3">
         <v>1300</v>
       </c>
       <c r="J61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K61" s="3">
         <v>7600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3290,8 +3436,8 @@
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
@@ -3308,8 +3454,8 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3317,20 +3463,23 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E66" s="3">
         <v>17300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-31100</v>
+        <v>-31300</v>
       </c>
       <c r="E72" s="3">
         <v>-31100</v>
       </c>
       <c r="F72" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-30500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-28300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-26700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-16900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-17900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-18100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-16200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-15400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-14900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-10100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q81" s="3">
         <v>-1300</v>
       </c>
       <c r="R81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4245,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
         <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-400</v>
       </c>
       <c r="M89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4642,17 +4863,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4801,17 +5031,17 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,50 +5416,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>BANT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
         <v>700</v>
       </c>
       <c r="F8" s="3">
+        <v>700</v>
+      </c>
+      <c r="G8" s="3">
         <v>800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1100</v>
       </c>
       <c r="H8" s="3">
         <v>1100</v>
       </c>
       <c r="I8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J8" s="3">
         <v>1400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,111 +818,117 @@
         <v>500</v>
       </c>
       <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>800</v>
       </c>
       <c r="H9" s="3">
         <v>800</v>
       </c>
       <c r="I9" s="3">
+        <v>800</v>
+      </c>
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,55 +1065,58 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1128,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-500</v>
       </c>
       <c r="M18" s="3">
         <v>-500</v>
       </c>
       <c r="N18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1337,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1369,64 +1403,70 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-500</v>
       </c>
       <c r="M21" s="3">
         <v>-500</v>
       </c>
       <c r="N21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,7 +1474,7 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
@@ -1446,7 +1486,7 @@
         <v>400</v>
       </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1455,90 +1495,96 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>400</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
+        <v>400</v>
+      </c>
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1300</v>
       </c>
       <c r="R23" s="3">
         <v>-1300</v>
       </c>
       <c r="S23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-1300</v>
       </c>
       <c r="R26" s="3">
         <v>-1300</v>
       </c>
       <c r="S26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-1300</v>
       </c>
       <c r="R27" s="3">
         <v>-1300</v>
       </c>
       <c r="S27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2009,19 +2079,19 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2041,64 +2111,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-1300</v>
       </c>
       <c r="R33" s="3">
         <v>-1300</v>
       </c>
       <c r="S33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-1300</v>
       </c>
       <c r="R35" s="3">
         <v>-1300</v>
       </c>
       <c r="S35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,19 +2400,20 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
@@ -2338,40 +2425,43 @@
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,25 +2528,25 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1000</v>
       </c>
       <c r="L43" s="3">
         <v>1000</v>
@@ -2462,84 +2555,90 @@
         <v>1000</v>
       </c>
       <c r="N43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>300</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
       </c>
       <c r="Q44" s="3">
+        <v>300</v>
+      </c>
+      <c r="R44" s="3">
         <v>600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2568,90 +2667,96 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1000</v>
       </c>
       <c r="I46" s="3">
         <v>1000</v>
       </c>
       <c r="J46" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K46" s="3">
         <v>1100</v>
       </c>
       <c r="L46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2721,11 +2829,11 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
@@ -2747,8 +2855,8 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
@@ -2762,64 +2870,70 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>2800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>3600</v>
       </c>
       <c r="M49" s="3">
         <v>3600</v>
       </c>
       <c r="N49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O49" s="3">
         <v>3700</v>
-      </c>
-      <c r="O49" s="3">
-        <v>3800</v>
       </c>
       <c r="P49" s="3">
         <v>3800</v>
       </c>
       <c r="Q49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R49" s="3">
         <v>3900</v>
-      </c>
-      <c r="R49" s="3">
-        <v>4000</v>
       </c>
       <c r="S49" s="3">
         <v>4000</v>
       </c>
       <c r="T49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1000</v>
       </c>
       <c r="I54" s="3">
         <v>1000</v>
       </c>
       <c r="J54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,55 +3282,58 @@
         <v>2700</v>
       </c>
       <c r="E57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3300</v>
       </c>
       <c r="L57" s="3">
         <v>3300</v>
       </c>
       <c r="M57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>3800</v>
       </c>
       <c r="R57" s="3">
         <v>3800</v>
       </c>
       <c r="S57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,167 +3341,176 @@
         <v>9100</v>
       </c>
       <c r="E58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F58" s="3">
         <v>9200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2200</v>
       </c>
       <c r="K59" s="3">
         <v>2200</v>
       </c>
       <c r="L59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16100</v>
+        <v>16300</v>
       </c>
       <c r="E60" s="3">
         <v>16100</v>
       </c>
       <c r="F60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G60" s="3">
         <v>16800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,38 +3518,38 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1300</v>
       </c>
       <c r="J61" s="3">
         <v>1300</v>
       </c>
       <c r="K61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L61" s="3">
         <v>7600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3422,13 +3565,16 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3439,8 +3585,8 @@
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -3457,8 +3603,8 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3466,20 +3612,23 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E66" s="3">
         <v>16400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31300</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-31100</v>
       </c>
       <c r="F72" s="3">
         <v>-31100</v>
       </c>
       <c r="G72" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-30500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-27400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-26700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-15700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-16900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-17900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-18100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-16200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-15400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-14900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-11600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-10100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-1300</v>
       </c>
       <c r="R81" s="3">
         <v>-1300</v>
       </c>
       <c r="S81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4447,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-400</v>
       </c>
       <c r="M89" s="3">
         <v>-400</v>
       </c>
       <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4866,17 +5087,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5034,17 +5264,17 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
       </c>
       <c r="J100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,53 +5668,56 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>BANT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,211 +665,230 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>400</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>6300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>5700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>5700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>5600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,22 +896,22 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
@@ -904,31 +923,37 @@
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,58 +1116,64 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1154,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>100</v>
+      </c>
+      <c r="W15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1374,23 +1441,23 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1406,8 +1473,14 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,58 +1488,64 @@
         <v>-600</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,13 +1553,13 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
-        <v>400</v>
-      </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
@@ -1489,102 +1568,114 @@
         <v>400</v>
       </c>
       <c r="J22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>600</v>
       </c>
       <c r="P22" s="3">
         <v>500</v>
       </c>
       <c r="Q22" s="3">
+        <v>600</v>
+      </c>
+      <c r="R22" s="3">
+        <v>500</v>
+      </c>
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2082,22 +2221,22 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2114,67 +2253,79 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,16 +2572,18 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2419,7 +2592,7 @@
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
@@ -2428,40 +2601,46 @@
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,72 +2698,84 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
-      </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>400</v>
+      </c>
+      <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1000</v>
       </c>
       <c r="N43" s="3">
         <v>1000</v>
       </c>
       <c r="O43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -2593,52 +2784,58 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
-        <v>100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>100</v>
-      </c>
       <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>500</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
       </c>
       <c r="Q44" s="3">
+        <v>500</v>
+      </c>
+      <c r="R44" s="3">
         <v>300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
+        <v>300</v>
+      </c>
+      <c r="T44" s="3">
         <v>600</v>
-      </c>
-      <c r="S44" s="3">
-        <v>700</v>
-      </c>
-      <c r="T44" s="3">
-        <v>500</v>
       </c>
       <c r="U44" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>500</v>
+      </c>
+      <c r="W44" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2670,93 +2867,105 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>600</v>
-      </c>
-      <c r="F46" s="3">
-        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>600</v>
       </c>
       <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>600</v>
+      </c>
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +3023,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2832,14 +3047,14 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
@@ -2858,11 +3073,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
@@ -2873,8 +3088,14 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2884,56 +3105,62 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>2800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>4000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,31 +3283,37 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3109,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F54" s="3">
         <v>500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>700</v>
       </c>
       <c r="H54" s="3">
+        <v>400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>700</v>
+      </c>
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3532,10 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3285,232 +3546,256 @@
         <v>2700</v>
       </c>
       <c r="F57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3200</v>
       </c>
       <c r="L57" s="3">
         <v>3300</v>
       </c>
       <c r="M57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F58" s="3">
         <v>9100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>9100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>9200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>10200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>9700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>9400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>9200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>9300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>8000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>10300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>10800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>6500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>5400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F60" s="3">
         <v>16300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>16100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>16100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>16800</v>
       </c>
       <c r="H60" s="3">
         <v>16100</v>
       </c>
       <c r="I60" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K60" s="3">
         <v>16000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>15200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>14700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>14600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>15100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>14500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>13700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>12400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>11200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3521,41 +3806,41 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>7600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>7500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3853,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3577,10 +3868,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3588,11 +3879,11 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -3606,29 +3897,35 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>100</v>
-      </c>
       <c r="U62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>100</v>
+      </c>
+      <c r="W62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F66" s="3">
         <v>16600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>16400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>17300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>18900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>17200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>15000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>14900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>15100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>14500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>13700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>12400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>11200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-32200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-31100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-31100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-28300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-27400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-26700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-23400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-21700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-20700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-19600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-16900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-15200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-12600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-16100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-15700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-16900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-17900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-18100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-16200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-15400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-14900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-11600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-10100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-9700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-9400</v>
       </c>
       <c r="Q76" s="3">
         <v>-9200</v>
       </c>
       <c r="R76" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="T76" s="3">
         <v>-7500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-6400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-5500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4649,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -4681,8 +5078,14 @@
       <c r="U83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5403,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4985,58 +5418,64 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>300</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>300</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5090,20 +5531,20 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -5117,8 +5558,14 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5267,20 +5726,20 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
@@ -5294,8 +5753,14 @@
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>300</v>
       </c>
       <c r="P100" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>300</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6168,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>BANT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,255 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
       </c>
       <c r="F8" s="3">
+        <v>400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>400</v>
+      </c>
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>6300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>5700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>5700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>5600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -902,22 +922,22 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
       </c>
       <c r="J10" s="3">
+        <v>400</v>
+      </c>
+      <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
@@ -929,31 +949,37 @@
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1141,85 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1205,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>5000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>7100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>7200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,13 +1480,15 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1447,23 +1515,23 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1479,93 +1547,105 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F21" s="3">
         <v>-600</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="H21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>400</v>
-      </c>
       <c r="I22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
@@ -1574,108 +1654,120 @@
         <v>400</v>
       </c>
       <c r="L22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>600</v>
       </c>
       <c r="R22" s="3">
         <v>500</v>
       </c>
       <c r="S22" s="3">
+        <v>600</v>
+      </c>
+      <c r="T22" s="3">
+        <v>500</v>
+      </c>
+      <c r="U22" s="3">
         <v>1700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
         <v>-700</v>
       </c>
       <c r="F23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
         <v>-700</v>
       </c>
       <c r="F26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
         <v>-700</v>
       </c>
       <c r="F27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,13 +2328,19 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2227,22 +2367,22 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2259,73 +2399,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
         <v>-700</v>
       </c>
       <c r="F33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
         <v>-700</v>
       </c>
       <c r="F35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,22 +2746,24 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2598,7 +2772,7 @@
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
@@ -2607,40 +2781,46 @@
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,73 +2884,85 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
-      </c>
       <c r="J43" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1000</v>
       </c>
       <c r="P43" s="3">
         <v>1000</v>
       </c>
       <c r="Q43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S43" s="3">
         <v>1600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2781,7 +2973,7 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -2790,52 +2982,58 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
-        <v>100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>100</v>
-      </c>
       <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
         <v>200</v>
-      </c>
-      <c r="P44" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>500</v>
       </c>
       <c r="R44" s="3">
         <v>300</v>
       </c>
       <c r="S44" s="3">
+        <v>500</v>
+      </c>
+      <c r="T44" s="3">
         <v>300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
+        <v>300</v>
+      </c>
+      <c r="V44" s="3">
         <v>600</v>
-      </c>
-      <c r="U44" s="3">
-        <v>700</v>
-      </c>
-      <c r="V44" s="3">
-        <v>500</v>
       </c>
       <c r="W44" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2873,99 +3071,111 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>600</v>
       </c>
       <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
+        <v>600</v>
+      </c>
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,13 +3239,19 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -3053,14 +3269,14 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
@@ -3079,11 +3295,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
@@ -3094,8 +3310,14 @@
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3105,11 +3327,11 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -3120,47 +3342,53 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>2800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>3900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>4000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>4000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3300,11 +3540,11 @@
       <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -3315,11 +3555,11 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>700</v>
       </c>
       <c r="J54" s="3">
+        <v>400</v>
+      </c>
+      <c r="K54" s="3">
+        <v>700</v>
+      </c>
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>6000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3794,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3552,255 +3814,279 @@
         <v>2700</v>
       </c>
       <c r="H57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3200</v>
       </c>
       <c r="N57" s="3">
         <v>3300</v>
       </c>
       <c r="O57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F58" s="3">
         <v>8600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>8700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>9100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>9100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>9200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>10200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>9700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>9400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>9200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>9300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>8000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>10300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>10800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>6500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>5500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>5400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F60" s="3">
         <v>16100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>16100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>16100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>16800</v>
       </c>
       <c r="J60" s="3">
         <v>16100</v>
       </c>
       <c r="K60" s="3">
+        <v>16800</v>
+      </c>
+      <c r="L60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="M60" s="3">
         <v>16000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>15200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>14700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>14600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>15100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>14500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>13700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>12400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>11200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
@@ -3812,41 +4098,41 @@
         <v>300</v>
       </c>
       <c r="H61" s="3">
+        <v>300</v>
+      </c>
+      <c r="I61" s="3">
+        <v>300</v>
+      </c>
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>7600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>7500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>6800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3874,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3885,11 +4177,11 @@
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -3903,29 +4195,35 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>100</v>
-      </c>
       <c r="W62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4429,14 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4131,61 +4447,67 @@
         <v>16300</v>
       </c>
       <c r="F66" s="3">
+        <v>16400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H66" s="3">
         <v>16600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>16400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>17300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>18700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>17200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>16500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>15300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>15100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>14500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>13700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>12400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>11200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-33800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-33000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-32200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-31300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-31100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-31100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-30500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-28300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-27400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-26700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-23400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-21700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-19600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-17600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-16900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-15200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-13900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-12600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-15200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-14800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-16100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-15700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-16900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-17900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-18100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-16200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-15400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-14900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-11600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-10100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-9700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-9400</v>
       </c>
       <c r="S76" s="3">
         <v>-9200</v>
       </c>
       <c r="T76" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="V76" s="3">
         <v>-7500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-6400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-5500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
         <v>-700</v>
       </c>
       <c r="F81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5052,10 +5450,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5837,14 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,64 +5852,70 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>300</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
       </c>
       <c r="T89" s="3">
+        <v>300</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5537,20 +5979,20 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6148,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5732,20 +6192,20 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6530,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,64 +6545,70 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>300</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>300</v>
       </c>
       <c r="P100" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>300</v>
       </c>
       <c r="R100" s="3">
+        <v>400</v>
+      </c>
+      <c r="S100" s="3">
+        <v>300</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>BANT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,262 +665,281 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
       </c>
       <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>6300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>5700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>4100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>5700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>5600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
@@ -928,22 +947,22 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
+        <v>400</v>
+      </c>
+      <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
@@ -955,31 +974,37 @@
         <v>300</v>
       </c>
       <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
+        <v>300</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,84 +1180,96 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-200</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-200</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1257,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
@@ -1289,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>6800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>4200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>4600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>5000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>7100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>7200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,20 +1547,22 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1521,23 +1588,23 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1553,105 +1620,117 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-600</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>400</v>
-      </c>
       <c r="K22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
@@ -1660,114 +1739,126 @@
         <v>400</v>
       </c>
       <c r="N22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>500</v>
-      </c>
-      <c r="S22" s="3">
-        <v>600</v>
       </c>
       <c r="T22" s="3">
         <v>500</v>
       </c>
       <c r="U22" s="3">
+        <v>600</v>
+      </c>
+      <c r="V22" s="3">
+        <v>500</v>
+      </c>
+      <c r="W22" s="3">
         <v>1700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-900</v>
       </c>
       <c r="G23" s="3">
         <v>-700</v>
       </c>
       <c r="H23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-900</v>
       </c>
       <c r="G26" s="3">
         <v>-700</v>
       </c>
       <c r="H26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-900</v>
       </c>
       <c r="G27" s="3">
         <v>-700</v>
       </c>
       <c r="H27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,19 +2467,25 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2373,22 +2512,22 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2405,79 +2544,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-900</v>
       </c>
       <c r="G33" s="3">
         <v>-700</v>
       </c>
       <c r="H33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-900</v>
       </c>
       <c r="G35" s="3">
         <v>-700</v>
       </c>
       <c r="H35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,28 +2919,30 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2778,7 +2951,7 @@
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
@@ -2787,40 +2960,46 @@
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,79 +3069,91 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
-      </c>
       <c r="L43" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1000</v>
       </c>
       <c r="R43" s="3">
         <v>1000</v>
       </c>
       <c r="S43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U43" s="3">
         <v>1600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2979,7 +3170,7 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -2988,52 +3179,58 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
-        <v>100</v>
-      </c>
-      <c r="P44" s="3">
-        <v>100</v>
-      </c>
       <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
         <v>200</v>
-      </c>
-      <c r="R44" s="3">
-        <v>300</v>
-      </c>
-      <c r="S44" s="3">
-        <v>500</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
       </c>
       <c r="U44" s="3">
+        <v>500</v>
+      </c>
+      <c r="V44" s="3">
         <v>300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
+        <v>300</v>
+      </c>
+      <c r="X44" s="3">
         <v>600</v>
-      </c>
-      <c r="W44" s="3">
-        <v>700</v>
-      </c>
-      <c r="X44" s="3">
-        <v>500</v>
       </c>
       <c r="Y44" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3077,105 +3274,117 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>100</v>
-      </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>700</v>
       </c>
       <c r="F46" s="3">
+        <v>600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>600</v>
       </c>
       <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
+        <v>600</v>
+      </c>
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3254,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3275,14 +3490,14 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
@@ -3301,11 +3516,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
@@ -3316,13 +3531,19 @@
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -3333,11 +3554,11 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -3348,47 +3569,53 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>2800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>3800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>3800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>3900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>4000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>4000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,16 +3762,22 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>100</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3546,11 +3785,11 @@
       <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -3561,11 +3800,11 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3600,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>700</v>
       </c>
       <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
+        <v>700</v>
+      </c>
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>5700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,13 +4055,15 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E57" s="3">
         <v>2700</v>
@@ -3820,268 +4081,292 @@
         <v>2700</v>
       </c>
       <c r="J57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>3200</v>
       </c>
       <c r="P57" s="3">
         <v>3300</v>
       </c>
       <c r="Q57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T57" s="3">
         <v>3500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>3800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F58" s="3">
         <v>8400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>8400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>8600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>8700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>9100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>9100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>9200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>10200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>9700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>9400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>9200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>9300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>8000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>10300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>10800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>6500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>5500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>5400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F59" s="3">
         <v>5200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F60" s="3">
         <v>16300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>16000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>16300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>16100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>16100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>16800</v>
       </c>
       <c r="L60" s="3">
         <v>16100</v>
       </c>
       <c r="M60" s="3">
+        <v>16800</v>
+      </c>
+      <c r="N60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="O60" s="3">
         <v>16000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>15200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>14700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>14600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>15100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>14500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>13700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>12400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>11200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4089,10 +4374,10 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
@@ -4104,41 +4389,41 @@
         <v>300</v>
       </c>
       <c r="J61" s="3">
+        <v>300</v>
+      </c>
+      <c r="K61" s="3">
+        <v>300</v>
+      </c>
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>7600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>7500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>6800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4151,13 +4436,19 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4172,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -4183,11 +4474,11 @@
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -4201,29 +4492,35 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>100</v>
-      </c>
       <c r="Y62" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,16 +4744,22 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
       <c r="E66" s="3">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="F66" s="3">
         <v>16400</v>
@@ -4453,61 +4768,67 @@
         <v>16300</v>
       </c>
       <c r="H66" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>16300</v>
+      </c>
+      <c r="J66" s="3">
         <v>16600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>17300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>18900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>17200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>15600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>15000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>14900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>15300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>15100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>14500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>13700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>12400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>11200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,16 +5004,22 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -4746,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-35000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-34500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-33800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-33000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-32200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-31300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-31100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-31100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-30500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-28300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-27400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-26700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-21700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-20700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-19600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-17600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-16900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-15200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-13900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-12600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-15600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-15400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-15200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-14800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-16100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-15700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-16900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-17900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-18100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-16200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-15400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-14900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-10100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-9700</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-9400</v>
       </c>
       <c r="U76" s="3">
         <v>-9200</v>
       </c>
       <c r="V76" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="W76" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="X76" s="3">
         <v>-7500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-6400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-900</v>
       </c>
       <c r="G81" s="3">
         <v>-700</v>
       </c>
       <c r="H81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,13 +5812,15 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5456,10 +5853,10 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -5488,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T89" s="3">
-        <v>300</v>
       </c>
       <c r="U89" s="3">
         <v>-300</v>
       </c>
       <c r="V89" s="3">
+        <v>300</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5985,20 +6426,20 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
@@ -6012,8 +6453,14 @@
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6198,20 +6657,20 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>8</v>
@@ -6225,8 +6684,14 @@
       <c r="Y94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>300</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>300</v>
       </c>
       <c r="R100" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>300</v>
       </c>
       <c r="T100" s="3">
+        <v>400</v>
+      </c>
+      <c r="U100" s="3">
+        <v>300</v>
+      </c>
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6687,66 +7190,72 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>BANT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,13 +785,13 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
@@ -796,61 +800,64 @@
         <v>400</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
         <v>600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>700</v>
       </c>
       <c r="L8" s="3">
         <v>700</v>
       </c>
       <c r="M8" s="3">
+        <v>700</v>
+      </c>
+      <c r="N8" s="3">
         <v>800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1100</v>
       </c>
       <c r="O8" s="3">
         <v>1100</v>
       </c>
       <c r="P8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,13 +865,13 @@
         <v>500</v>
       </c>
       <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
@@ -873,61 +880,64 @@
         <v>300</v>
       </c>
       <c r="J9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>500</v>
       </c>
       <c r="L9" s="3">
+        <v>500</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>800</v>
       </c>
       <c r="O9" s="3">
         <v>800</v>
       </c>
       <c r="P9" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -938,11 +948,11 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
@@ -953,58 +963,61 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>300</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>600</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
       <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,76 +1203,79 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1263,16 +1283,19 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1308,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,76 +1402,79 @@
         <v>1000</v>
       </c>
       <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1482,79 @@
         <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-500</v>
       </c>
       <c r="T18" s="3">
         <v>-500</v>
       </c>
       <c r="U18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,11 +1595,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1594,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,105 +1672,108 @@
         <v>-400</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-500</v>
       </c>
       <c r="T21" s="3">
         <v>-500</v>
       </c>
       <c r="U21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
       </c>
       <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
@@ -1745,7 +1785,7 @@
         <v>400</v>
       </c>
       <c r="P22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
@@ -1754,34 +1794,37 @@
         <v>300</v>
       </c>
       <c r="S22" s="3">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>700</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>400</v>
       </c>
       <c r="Z22" s="3">
         <v>400</v>
       </c>
       <c r="AA22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1789,76 +1832,79 @@
         <v>-800</v>
       </c>
       <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1700</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-1300</v>
       </c>
       <c r="Y23" s="3">
         <v>-1300</v>
       </c>
       <c r="Z23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2020,153 +2072,159 @@
         <v>-800</v>
       </c>
       <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1700</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-1300</v>
       </c>
       <c r="Y26" s="3">
         <v>-1300</v>
       </c>
       <c r="Z26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-1300</v>
       </c>
       <c r="Y27" s="3">
         <v>-1300</v>
       </c>
       <c r="Z27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2518,19 +2588,19 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-1300</v>
       </c>
       <c r="Y33" s="3">
         <v>-1300</v>
       </c>
       <c r="Z33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-1300</v>
       </c>
       <c r="Y35" s="3">
         <v>-1300</v>
       </c>
       <c r="Z35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,40 +3007,41 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
@@ -2966,40 +3053,43 @@
         <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>200</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,55 +3165,58 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
-      </c>
-      <c r="R43" s="3">
-        <v>1000</v>
       </c>
       <c r="S43" s="3">
         <v>1000</v>
@@ -3132,28 +3225,31 @@
         <v>1000</v>
       </c>
       <c r="U43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V43" s="3">
         <v>1600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3176,61 +3272,64 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
         <v>500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
-        <v>100</v>
-      </c>
       <c r="R44" s="3">
         <v>100</v>
       </c>
       <c r="S44" s="3">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>500</v>
-      </c>
-      <c r="V44" s="3">
-        <v>300</v>
       </c>
       <c r="W44" s="3">
         <v>300</v>
       </c>
       <c r="X44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y44" s="3">
         <v>600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3280,111 +3379,117 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1000</v>
       </c>
       <c r="P46" s="3">
         <v>1000</v>
       </c>
       <c r="Q46" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="R46" s="3">
         <v>1100</v>
       </c>
       <c r="S46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T46" s="3">
         <v>1300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3475,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3496,11 +3604,11 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
@@ -3522,8 +3630,8 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
@@ -3537,16 +3645,19 @@
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -3560,8 +3671,8 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -3575,8 +3686,8 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3585,37 +3696,40 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>2800</v>
-      </c>
-      <c r="S49" s="3">
-        <v>3600</v>
       </c>
       <c r="T49" s="3">
         <v>3600</v>
       </c>
       <c r="U49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V49" s="3">
         <v>3700</v>
-      </c>
-      <c r="V49" s="3">
-        <v>3800</v>
       </c>
       <c r="W49" s="3">
         <v>3800</v>
       </c>
       <c r="X49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Y49" s="3">
         <v>3900</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>4000</v>
       </c>
       <c r="Z49" s="3">
         <v>4000</v>
       </c>
       <c r="AA49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AB49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,19 +3885,22 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3791,8 +3911,8 @@
       <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -3806,8 +3926,8 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1000</v>
       </c>
       <c r="P54" s="3">
         <v>1000</v>
       </c>
       <c r="Q54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,16 +4187,17 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2700</v>
       </c>
       <c r="F57" s="3">
         <v>2700</v>
@@ -4087,291 +4218,303 @@
         <v>2700</v>
       </c>
       <c r="L57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>3300</v>
       </c>
       <c r="S57" s="3">
         <v>3300</v>
       </c>
       <c r="T57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U57" s="3">
         <v>3500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2400</v>
-      </c>
-      <c r="X57" s="3">
-        <v>3800</v>
       </c>
       <c r="Y57" s="3">
         <v>3800</v>
       </c>
       <c r="Z57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="AA57" s="3">
         <v>2800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="E58" s="3">
         <v>8500</v>
       </c>
       <c r="F58" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="G58" s="3">
         <v>8400</v>
       </c>
       <c r="H58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I58" s="3">
         <v>8600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>9100</v>
       </c>
       <c r="K58" s="3">
         <v>9100</v>
       </c>
       <c r="L58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="M58" s="3">
         <v>9200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>4500</v>
       </c>
       <c r="J59" s="3">
         <v>4500</v>
       </c>
       <c r="K59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2200</v>
       </c>
       <c r="R59" s="3">
         <v>2200</v>
       </c>
       <c r="S59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E60" s="3">
         <v>16700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>16100</v>
       </c>
       <c r="L60" s="3">
         <v>16100</v>
       </c>
       <c r="M60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="N60" s="3">
         <v>16800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>13700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>12400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -4380,7 +4523,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
@@ -4395,38 +4538,38 @@
         <v>300</v>
       </c>
       <c r="L61" s="3">
+        <v>300</v>
+      </c>
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1200</v>
-      </c>
-      <c r="P61" s="3">
-        <v>1300</v>
       </c>
       <c r="Q61" s="3">
         <v>1300</v>
       </c>
       <c r="R61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S61" s="3">
         <v>7600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>700</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4442,16 +4585,19 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4469,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -4480,8 +4626,8 @@
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -4498,8 +4644,8 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4507,20 +4653,23 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E66" s="3">
         <v>16800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,19 +5175,22 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E70" s="3">
         <v>700</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-31100</v>
       </c>
       <c r="M72" s="3">
         <v>-31100</v>
       </c>
       <c r="N72" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-30500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-28300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-26700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-20700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-19600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-17600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-15200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-13900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-12600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-17200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-16600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-15600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-15400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-15200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-14800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-16100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-15700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-16900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-17900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-18100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-16200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-14900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-11600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-10100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-9700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-9200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-9400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-9200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-5500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-1300</v>
       </c>
       <c r="Y81" s="3">
         <v>-1300</v>
       </c>
       <c r="Z81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,16 +6012,17 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5859,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
         <v>100</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-400</v>
       </c>
       <c r="T89" s="3">
         <v>-400</v>
       </c>
       <c r="U89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6432,17 +6653,17 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6663,17 +6893,17 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>8</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7196,59 +7448,59 @@
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BANT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>BANT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,13 +792,13 @@
         <v>600</v>
       </c>
       <c r="F8" s="3">
+        <v>600</v>
+      </c>
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
@@ -803,61 +807,64 @@
         <v>400</v>
       </c>
       <c r="K8" s="3">
+        <v>400</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>700</v>
       </c>
       <c r="M8" s="3">
         <v>700</v>
       </c>
       <c r="N8" s="3">
+        <v>700</v>
+      </c>
+      <c r="O8" s="3">
         <v>800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1100</v>
       </c>
       <c r="P8" s="3">
         <v>1100</v>
       </c>
       <c r="Q8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,13 +875,13 @@
         <v>500</v>
       </c>
       <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -883,61 +890,64 @@
         <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>500</v>
       </c>
       <c r="M9" s="3">
+        <v>500</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
-      </c>
-      <c r="O9" s="3">
-        <v>800</v>
       </c>
       <c r="P9" s="3">
         <v>800</v>
       </c>
       <c r="Q9" s="3">
+        <v>800</v>
+      </c>
+      <c r="R9" s="3">
         <v>1200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -951,11 +961,11 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
@@ -966,58 +976,61 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
-      </c>
-      <c r="O10" s="3">
-        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>600</v>
       </c>
-      <c r="AA10" s="3">
-        <v>100</v>
-      </c>
       <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,79 +1223,82 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-200</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1297,8 +1320,8 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1334,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
         <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-500</v>
       </c>
       <c r="U18" s="3">
         <v>-500</v>
       </c>
       <c r="V18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1598,11 +1632,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1631,19 +1665,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1663,120 +1697,126 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
         <v>-400</v>
       </c>
       <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-500</v>
       </c>
       <c r="U21" s="3">
         <v>-500</v>
       </c>
       <c r="V21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W21" s="3">
         <v>-1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
       </c>
       <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
       <c r="M22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>400</v>
@@ -1788,7 +1828,7 @@
         <v>400</v>
       </c>
       <c r="Q22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
@@ -1797,114 +1837,120 @@
         <v>300</v>
       </c>
       <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>700</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>400</v>
       </c>
       <c r="AA22" s="3">
         <v>400</v>
       </c>
       <c r="AB22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
         <v>-800</v>
       </c>
       <c r="F23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-1300</v>
       </c>
       <c r="Z23" s="3">
         <v>-1300</v>
       </c>
       <c r="AA23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
         <v>-800</v>
       </c>
       <c r="F26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-1300</v>
       </c>
       <c r="Z26" s="3">
         <v>-1300</v>
       </c>
       <c r="AA26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-1300</v>
       </c>
       <c r="Z27" s="3">
         <v>-1300</v>
       </c>
       <c r="AA27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2558,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2591,19 +2661,19 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
-        <v>100</v>
-      </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2623,88 +2693,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-1300</v>
       </c>
       <c r="Z33" s="3">
         <v>-1300</v>
       </c>
       <c r="AA33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-1300</v>
       </c>
       <c r="Z35" s="3">
         <v>-1300</v>
       </c>
       <c r="AA35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3094,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3017,34 +3104,34 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
@@ -3056,40 +3143,43 @@
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
         <v>200</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3177,49 +3270,49 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
-      </c>
-      <c r="S43" s="3">
-        <v>1000</v>
       </c>
       <c r="T43" s="3">
         <v>1000</v>
@@ -3228,28 +3321,31 @@
         <v>1000</v>
       </c>
       <c r="V43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W43" s="3">
         <v>1600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3275,61 +3371,64 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
         <v>500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3">
-        <v>100</v>
-      </c>
       <c r="S44" s="3">
         <v>100</v>
       </c>
       <c r="T44" s="3">
+        <v>100</v>
+      </c>
+      <c r="U44" s="3">
         <v>200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>500</v>
-      </c>
-      <c r="W44" s="3">
-        <v>300</v>
       </c>
       <c r="X44" s="3">
         <v>300</v>
       </c>
       <c r="Y44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z44" s="3">
         <v>600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3382,34 +3481,37 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3417,79 +3519,82 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1000</v>
       </c>
       <c r="Q46" s="3">
         <v>1000</v>
       </c>
       <c r="R46" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="S46" s="3">
         <v>1100</v>
       </c>
       <c r="T46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U46" s="3">
         <v>1300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,13 +3673,16 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3586,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -3607,11 +3715,11 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
@@ -3633,8 +3741,8 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3659,8 +3770,8 @@
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3674,8 +3785,8 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
@@ -3689,8 +3800,8 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3699,37 +3810,40 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>2800</v>
-      </c>
-      <c r="T49" s="3">
-        <v>3600</v>
       </c>
       <c r="U49" s="3">
         <v>3600</v>
       </c>
       <c r="V49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W49" s="3">
         <v>3700</v>
-      </c>
-      <c r="W49" s="3">
-        <v>3800</v>
       </c>
       <c r="X49" s="3">
         <v>3800</v>
       </c>
       <c r="Y49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Z49" s="3">
         <v>3900</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>4000</v>
       </c>
       <c r="AA49" s="3">
         <v>4000</v>
       </c>
       <c r="AB49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AC49" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3899,11 +4019,11 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3914,8 +4034,8 @@
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
+      <c r="K52" s="3">
+        <v>100</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
@@ -3929,8 +4049,8 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1000</v>
       </c>
       <c r="Q54" s="3">
         <v>1000</v>
       </c>
       <c r="R54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,10 +4328,10 @@
         <v>2700</v>
       </c>
       <c r="E57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
         <v>2600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2700</v>
       </c>
       <c r="G57" s="3">
         <v>2700</v>
@@ -4221,295 +4352,307 @@
         <v>2700</v>
       </c>
       <c r="M57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>3300</v>
       </c>
       <c r="T57" s="3">
         <v>3300</v>
       </c>
       <c r="U57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="V57" s="3">
         <v>3500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2400</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>3800</v>
       </c>
       <c r="Z57" s="3">
         <v>3800</v>
       </c>
       <c r="AA57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="AB57" s="3">
         <v>2800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E58" s="3">
         <v>8700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>8500</v>
       </c>
       <c r="F58" s="3">
         <v>8500</v>
       </c>
       <c r="G58" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="H58" s="3">
         <v>8400</v>
       </c>
       <c r="I58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J58" s="3">
         <v>8600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>9100</v>
       </c>
       <c r="L58" s="3">
         <v>9100</v>
       </c>
       <c r="M58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="N58" s="3">
         <v>9200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>10800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E59" s="3">
         <v>6000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4500</v>
       </c>
       <c r="K59" s="3">
         <v>4500</v>
       </c>
       <c r="L59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>2200</v>
       </c>
       <c r="S59" s="3">
         <v>2200</v>
       </c>
       <c r="T59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E60" s="3">
         <v>17500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>16100</v>
       </c>
       <c r="M60" s="3">
         <v>16100</v>
       </c>
       <c r="N60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="O60" s="3">
         <v>16800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>14500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>13700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>12400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>11200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4517,7 +4660,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -4526,7 +4669,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
@@ -4541,38 +4684,38 @@
         <v>300</v>
       </c>
       <c r="M61" s="3">
+        <v>300</v>
+      </c>
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>1300</v>
       </c>
       <c r="R61" s="3">
         <v>1300</v>
       </c>
       <c r="S61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T61" s="3">
         <v>7600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>700</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4588,19 +4731,22 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>100</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4618,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -4629,8 +4775,8 @@
       <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
@@ -4647,8 +4793,8 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4656,20 +4802,23 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E66" s="3">
         <v>17600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,22 +5343,25 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>500</v>
+      </c>
+      <c r="E70" s="3">
         <v>800</v>
-      </c>
-      <c r="E70" s="3">
-        <v>700</v>
       </c>
       <c r="F70" s="3">
         <v>700</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-37200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-31100</v>
       </c>
       <c r="N72" s="3">
         <v>-31100</v>
       </c>
       <c r="O72" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="P72" s="3">
         <v>-30500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-27400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-26700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-20700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-19600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-17600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-16900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-15200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-13900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-12600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-18000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-17200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-16600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-15600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-15400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-15200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-14800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-16100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-15700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-16900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-17900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-18100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-15400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-14900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-11600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-10100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-9700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-9200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-9400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-7500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-1300</v>
       </c>
       <c r="Z81" s="3">
         <v>-1300</v>
       </c>
       <c r="AA81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6024,8 +6223,8 @@
       <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -6061,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,79 +6719,82 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-400</v>
       </c>
       <c r="U89" s="3">
         <v>-400</v>
       </c>
       <c r="V89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6656,17 +6877,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6896,17 +7126,17 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>8</v>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-100</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
       </c>
       <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
       <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,13 +7682,16 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
@@ -7451,59 +7703,59 @@
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-500</v>
       </c>
     </row>
